--- a/صيدليات دكتور مصطفي طلعت_2026-01-05_20-58.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-05_20-58.xlsx
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>FLEXILAX 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
   </si>
   <si>
     <t>FROST TOPICAL SPRAY 100 ML</t>
@@ -2603,17 +2606,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2629,17 +2632,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
-        <v>0.040000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2647,7 +2650,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2655,17 +2658,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
-        <v>1</v>
+        <v>0.040000000000000001</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2681,13 +2684,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
@@ -2707,13 +2710,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
@@ -2743,7 +2746,7 @@
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2759,17 +2762,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>261</v>
+        <v>92</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2785,13 +2788,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>65</v>
+        <v>261</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
@@ -2811,13 +2814,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
@@ -2837,13 +2840,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
@@ -2863,17 +2866,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2889,17 +2892,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>720</v>
+        <v>39</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
-        <v>3</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2921,11 +2924,11 @@
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>41</v>
+        <v>720</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2941,17 +2944,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="M73" s="9"/>
       <c r="N73" s="10">
-        <v>0.67000000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2967,17 +2970,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
-        <v>1</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2993,13 +2996,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
@@ -3019,13 +3022,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>279</v>
+        <v>34</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
@@ -3051,7 +3054,7 @@
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>67</v>
+        <v>279</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
@@ -3071,13 +3074,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>136.5</v>
+        <v>67</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
@@ -3097,17 +3100,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>39</v>
+        <v>136.5</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3123,17 +3126,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>380</v>
+        <v>39</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3149,13 +3152,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
@@ -3175,13 +3178,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="10">
@@ -3201,13 +3204,13 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="M83" s="9"/>
       <c r="N83" s="10">
@@ -3227,13 +3230,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="10">
@@ -3259,7 +3262,7 @@
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="10">
@@ -3279,13 +3282,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="10">
@@ -3305,17 +3308,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>44.619999999999997</v>
+        <v>102</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="10">
-        <v>0.66000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3331,17 +3334,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>75</v>
+        <v>44.619999999999997</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
-        <v>1</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3357,13 +3360,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="10">
@@ -3383,13 +3386,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="10">
@@ -3409,17 +3412,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="M91" s="9"/>
       <c r="N91" s="10">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3427,7 +3430,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3435,17 +3438,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3461,13 +3464,13 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>43.649999999999999</v>
+        <v>125</v>
       </c>
       <c r="M93" s="9"/>
       <c r="N93" s="10">
@@ -3487,13 +3490,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>18</v>
+        <v>43.649999999999999</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="10">
@@ -3513,17 +3516,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>14.1</v>
+        <v>18</v>
       </c>
       <c r="M95" s="9"/>
       <c r="N95" s="10">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3531,7 +3534,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3539,17 +3542,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>130</v>
+        <v>14.1</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="10">
-        <v>2</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3565,17 +3568,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3597,7 +3600,7 @@
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>33.600000000000001</v>
+        <v>60</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="10">
@@ -3623,7 +3626,7 @@
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>138</v>
+        <v>33.600000000000001</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="10">
@@ -3643,13 +3646,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="10">
@@ -3661,7 +3664,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3669,17 +3672,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3687,7 +3690,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3695,17 +3698,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>149.5</v>
+        <v>21</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3721,17 +3724,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>62</v>
+        <v>149.5</v>
       </c>
       <c r="M103" s="9"/>
       <c r="N103" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3747,17 +3750,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="M104" s="9"/>
       <c r="N104" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3773,17 +3776,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="M105" s="9"/>
       <c r="N105" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3799,13 +3802,13 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="M106" s="9"/>
       <c r="N106" s="10">
@@ -3825,17 +3828,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>273</v>
+        <v>140</v>
       </c>
       <c r="M107" s="9"/>
       <c r="N107" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3851,17 +3854,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>60</v>
+        <v>273</v>
       </c>
       <c r="M108" s="9"/>
       <c r="N108" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3883,7 +3886,7 @@
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="M109" s="9"/>
       <c r="N109" s="10">
@@ -3903,17 +3906,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="M110" s="9"/>
       <c r="N110" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3929,17 +3932,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3955,17 +3958,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="M112" s="9"/>
       <c r="N112" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3981,13 +3984,13 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>97.019999999999996</v>
+        <v>80</v>
       </c>
       <c r="M113" s="9"/>
       <c r="N113" s="10">
@@ -3999,7 +4002,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -4007,17 +4010,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>95</v>
+        <v>97.019999999999996</v>
       </c>
       <c r="M114" s="9"/>
       <c r="N114" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -4039,11 +4042,11 @@
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="M115" s="9"/>
       <c r="N115" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -4059,17 +4062,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="M116" s="9"/>
       <c r="N116" s="10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4085,17 +4088,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="M117" s="9"/>
       <c r="N117" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4111,17 +4114,17 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="M118" s="9"/>
       <c r="N118" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" ht="24.75" customHeight="1">
@@ -4137,17 +4140,17 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="M119" s="9"/>
       <c r="N119" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="120" ht="25.5" customHeight="1">
@@ -4163,17 +4166,17 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="M120" s="9"/>
       <c r="N120" s="10">
-        <v>0.98999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" ht="24.75" customHeight="1">
@@ -4181,7 +4184,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B121" s="7">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4189,17 +4192,17 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="M121" s="9"/>
       <c r="N121" s="10">
-        <v>0.5</v>
+        <v>0.98999999999999999</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -4215,17 +4218,17 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>42.280000000000001</v>
+        <v>70</v>
       </c>
       <c r="M122" s="9"/>
       <c r="N122" s="10">
-        <v>17</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="123" ht="25.5" customHeight="1">
@@ -4233,7 +4236,7 @@
         <v>120</v>
       </c>
       <c t="s" r="B123" s="7">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -4241,17 +4244,17 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>63</v>
+        <v>42.280000000000001</v>
       </c>
       <c r="M123" s="9"/>
       <c r="N123" s="10">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" ht="24.75" customHeight="1">
@@ -4267,13 +4270,13 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>245</v>
+        <v>63</v>
       </c>
       <c r="M124" s="9"/>
       <c r="N124" s="10">
@@ -4293,13 +4296,13 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>120</v>
+        <v>245</v>
       </c>
       <c r="M125" s="9"/>
       <c r="N125" s="10">
@@ -4319,13 +4322,13 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>23.5</v>
+        <v>120</v>
       </c>
       <c r="M126" s="9"/>
       <c r="N126" s="10">
@@ -4337,7 +4340,7 @@
         <v>124</v>
       </c>
       <c t="s" r="B127" s="7">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -4345,13 +4348,13 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>15</v>
+        <v>23.5</v>
       </c>
       <c r="M127" s="9"/>
       <c r="N127" s="10">
@@ -4371,13 +4374,13 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M128" s="9"/>
       <c r="N128" s="10">
@@ -4389,7 +4392,7 @@
         <v>126</v>
       </c>
       <c t="s" r="B129" s="7">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -4397,13 +4400,13 @@
       <c r="F129" s="7"/>
       <c r="G129" s="7"/>
       <c t="s" r="H129" s="8">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
       <c r="K129" s="8"/>
       <c r="L129" s="9">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="M129" s="9"/>
       <c r="N129" s="10">
@@ -4423,17 +4426,17 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
       <c t="s" r="H130" s="8">
-        <v>159</v>
+        <v>8</v>
       </c>
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
       <c r="K130" s="8"/>
       <c r="L130" s="9">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="M130" s="9"/>
       <c r="N130" s="10">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" ht="24.75" customHeight="1">
@@ -4441,7 +4444,7 @@
         <v>128</v>
       </c>
       <c t="s" r="B131" s="7">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
@@ -4449,17 +4452,17 @@
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
       <c t="s" r="H131" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="9">
-        <v>25.98</v>
+        <v>56</v>
       </c>
       <c r="M131" s="9"/>
       <c r="N131" s="10">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -4467,7 +4470,7 @@
         <v>129</v>
       </c>
       <c t="s" r="B132" s="7">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -4475,17 +4478,17 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
       <c t="s" r="H132" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
       <c r="K132" s="8"/>
       <c r="L132" s="9">
-        <v>26</v>
+        <v>25.98</v>
       </c>
       <c r="M132" s="9"/>
       <c r="N132" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" ht="25.5" customHeight="1">
@@ -4493,7 +4496,7 @@
         <v>130</v>
       </c>
       <c t="s" r="B133" s="7">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
@@ -4501,17 +4504,17 @@
       <c r="F133" s="7"/>
       <c r="G133" s="7"/>
       <c t="s" r="H133" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
       <c r="K133" s="8"/>
       <c r="L133" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M133" s="9"/>
       <c r="N133" s="10">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" ht="24.75" customHeight="1">
@@ -4519,7 +4522,7 @@
         <v>131</v>
       </c>
       <c t="s" r="B134" s="7">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
@@ -4527,17 +4530,17 @@
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c t="s" r="H134" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
       <c r="K134" s="8"/>
       <c r="L134" s="9">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M134" s="9"/>
       <c r="N134" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" ht="25.5" customHeight="1">
@@ -4545,7 +4548,7 @@
         <v>132</v>
       </c>
       <c t="s" r="B135" s="7">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -4553,17 +4556,17 @@
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c t="s" r="H135" s="8">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
       <c r="K135" s="8"/>
       <c r="L135" s="9">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="M135" s="9"/>
       <c r="N135" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" ht="24.75" customHeight="1">
@@ -4579,13 +4582,13 @@
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
       <c t="s" r="H136" s="8">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
       <c r="K136" s="8"/>
       <c r="L136" s="9">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M136" s="9"/>
       <c r="N136" s="10">
@@ -4597,7 +4600,7 @@
         <v>134</v>
       </c>
       <c t="s" r="B137" s="7">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
@@ -4605,13 +4608,13 @@
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
       <c t="s" r="H137" s="8">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
       <c r="K137" s="8"/>
       <c r="L137" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="M137" s="9"/>
       <c r="N137" s="10">
@@ -4631,13 +4634,13 @@
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c t="s" r="H138" s="8">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
       <c r="K138" s="8"/>
       <c r="L138" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M138" s="9"/>
       <c r="N138" s="10">
@@ -4649,7 +4652,7 @@
         <v>136</v>
       </c>
       <c t="s" r="B139" s="7">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
@@ -4657,17 +4660,17 @@
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
       <c t="s" r="H139" s="8">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
       <c r="K139" s="8"/>
       <c r="L139" s="9">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M139" s="9"/>
       <c r="N139" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" ht="25.5" customHeight="1">
@@ -4683,17 +4686,17 @@
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c t="s" r="H140" s="8">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
       <c r="L140" s="9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="M140" s="9"/>
       <c r="N140" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" ht="24.75" customHeight="1">
@@ -4701,7 +4704,7 @@
         <v>138</v>
       </c>
       <c t="s" r="B141" s="7">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -4709,13 +4712,13 @@
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
       <c t="s" r="H141" s="8">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
       <c r="K141" s="8"/>
       <c r="L141" s="9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M141" s="9"/>
       <c r="N141" s="10">
@@ -4735,13 +4738,13 @@
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
       <c t="s" r="H142" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
       <c r="K142" s="8"/>
       <c r="L142" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M142" s="9"/>
       <c r="N142" s="10">
@@ -4761,13 +4764,13 @@
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
       <c t="s" r="H143" s="8">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="I143" s="8"/>
       <c r="J143" s="8"/>
       <c r="K143" s="8"/>
       <c r="L143" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M143" s="9"/>
       <c r="N143" s="10">
@@ -4787,51 +4790,77 @@
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c t="s" r="H144" s="8">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
       <c r="K144" s="8"/>
       <c r="L144" s="9">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="M144" s="9"/>
       <c r="N144" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="145" ht="26.25" customHeight="1">
-      <c r="K145" s="11">
-        <v>12957.200000000001</v>
-      </c>
-      <c r="L145" s="11"/>
-      <c r="M145" s="11"/>
-      <c r="N145" s="11"/>
-    </row>
-    <row r="146" ht="16.5" customHeight="1">
-      <c t="s" r="A146" s="12">
+    <row r="145" ht="25.5" customHeight="1">
+      <c r="A145" s="6">
+        <v>142</v>
+      </c>
+      <c t="s" r="B145" s="7">
         <v>181</v>
       </c>
-      <c r="B146" s="12"/>
-      <c r="C146" s="12"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="12"/>
-      <c t="s" r="F146" s="13">
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c t="s" r="H145" s="8">
+        <v>11</v>
+      </c>
+      <c r="I145" s="8"/>
+      <c r="J145" s="8"/>
+      <c r="K145" s="8"/>
+      <c r="L145" s="9">
+        <v>300</v>
+      </c>
+      <c r="M145" s="9"/>
+      <c r="N145" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="K146" s="11">
+        <v>13012.200000000001</v>
+      </c>
+      <c r="L146" s="11"/>
+      <c r="M146" s="11"/>
+      <c r="N146" s="11"/>
+    </row>
+    <row r="147" ht="16.5" customHeight="1">
+      <c t="s" r="A147" s="12">
         <v>182</v>
       </c>
-      <c r="G146" s="13"/>
-      <c r="H146" s="14"/>
-      <c t="s" r="I146" s="15">
+      <c r="B147" s="12"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c t="s" r="F147" s="13">
         <v>183</v>
       </c>
-      <c r="J146" s="15"/>
-      <c r="K146" s="15"/>
-      <c r="L146" s="15"/>
-      <c r="M146" s="15"/>
-      <c r="N146" s="15"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="14"/>
+      <c t="s" r="I147" s="15">
+        <v>184</v>
+      </c>
+      <c r="J147" s="15"/>
+      <c r="K147" s="15"/>
+      <c r="L147" s="15"/>
+      <c r="M147" s="15"/>
+      <c r="N147" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="434">
+  <mergeCells count="437">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -5262,10 +5291,13 @@
     <mergeCell ref="B144:G144"/>
     <mergeCell ref="H144:K144"/>
     <mergeCell ref="L144:M144"/>
-    <mergeCell ref="K145:N145"/>
-    <mergeCell ref="A146:E146"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="I146:N146"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="K146:N146"/>
+    <mergeCell ref="A147:E147"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="I147:N147"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
